--- a/data/backend/forum-service_structure.xlsx
+++ b/data/backend/forum-service_structure.xlsx
@@ -940,123 +940,123 @@
     <t>modificationDate</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>likedByUsers</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>createDate</t>
-  </si>
-  <si>
     <t>likesAmount</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>likedByUsers</t>
-  </si>
-  <si>
     <t>postId</t>
   </si>
   <si>
+    <t>likedPosts</t>
+  </si>
+  <si>
+    <t>likedResponses</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
     <t>responses</t>
   </si>
   <si>
-    <t>likedPosts</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>likedResponses</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>username</t>
+    <t>userMapper</t>
   </si>
   <si>
     <t>postResponsesLikesMapper</t>
   </si>
   <si>
-    <t>userMapper</t>
+    <t>creationDate</t>
   </si>
   <si>
     <t>response</t>
   </si>
   <si>
-    <t>creationDate</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
   </si>
   <si>
     <t>modificationTimestamp</t>
   </si>
   <si>
-    <t>creationTimestamp</t>
+    <t>topicId</t>
+  </si>
+  <si>
+    <t>topic</t>
   </si>
   <si>
     <t>userLikes</t>
   </si>
   <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>topicId</t>
+    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>userRepository</t>
   </si>
   <si>
     <t>userModelEntityMapper</t>
   </si>
   <si>
-    <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>userRepository</t>
+    <t>postRepository</t>
+  </si>
+  <si>
+    <t>topicRepository</t>
   </si>
   <si>
     <t>TOPIC_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>topicRepository</t>
-  </si>
-  <si>
-    <t>postRepository</t>
+    <t>postResponseMapper</t>
+  </si>
+  <si>
+    <t>postResponsesLikesRelationRepository</t>
+  </si>
+  <si>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
     <t>postResponseRepository</t>
   </si>
   <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
-  </si>
-  <si>
-    <t>postResponsesLikesRelationRepository</t>
-  </si>
-  <si>
-    <t>postResponseMapper</t>
-  </si>
-  <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
     <t>$SwitchMap$dto$topic$TopicSortingOrder</t>
   </si>
   <si>
@@ -1069,13 +1069,16 @@
     <t>responsesAmount</t>
   </si>
   <si>
+    <t>RESPONSE_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>POST_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>RESPONSE_NOT_FOUND_EXCEPTION_MESSAGE</t>
+    <t>IDENTIFIER_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>topicDTOModelMapper</t>
@@ -1084,9 +1087,6 @@
     <t>IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>IDENTIFIER_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>operationHttpStatusMapper</t>
   </si>
   <si>
@@ -1096,40 +1096,40 @@
     <t>topicService</t>
   </si>
   <si>
+    <t>postLikesRelationRepository</t>
+  </si>
+  <si>
     <t>postMapper</t>
   </si>
   <si>
-    <t>postLikesRelationRepository</t>
+    <t>userDTOModelMapper</t>
   </si>
   <si>
     <t>postLikesMapper</t>
   </si>
   <si>
-    <t>userDTOModelMapper</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>childTopics</t>
   </si>
   <si>
+    <t>parentTopic</t>
+  </si>
+  <si>
     <t>imageUrl</t>
   </si>
   <si>
-    <t>parentTopic</t>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>postDTOModelMapper</t>
+  </si>
+  <si>
+    <t>postLikesDTOModelMapper</t>
   </si>
   <si>
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>postDTOModelMapper</t>
-  </si>
-  <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>postLikesDTOModelMapper</t>
   </si>
   <si>
     <t>postService</t>
@@ -17029,7 +17029,7 @@
         <v>130</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -17043,7 +17043,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -17057,7 +17057,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -17071,7 +17071,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -17085,7 +17085,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -17113,7 +17113,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -17121,13 +17121,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -17135,13 +17135,13 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -17163,13 +17163,13 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -17183,7 +17183,7 @@
         <v>130</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -17191,13 +17191,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -17205,13 +17205,13 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -17219,7 +17219,7 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>130</v>
@@ -17233,13 +17233,13 @@
         <v>49</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -17247,7 +17247,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>130</v>
@@ -17261,13 +17261,13 @@
         <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -17275,13 +17275,13 @@
         <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -17289,7 +17289,7 @@
         <v>49</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>130</v>
@@ -17303,13 +17303,13 @@
         <v>49</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -17337,7 +17337,7 @@
         <v>130</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -17351,7 +17351,7 @@
         <v>130</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -17365,7 +17365,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -17379,7 +17379,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -17393,7 +17393,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
@@ -17401,13 +17401,13 @@
         <v>78</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -17415,7 +17415,7 @@
         <v>78</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>130</v>
@@ -17435,7 +17435,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -17443,7 +17443,7 @@
         <v>78</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>130</v>
@@ -17457,13 +17457,13 @@
         <v>78</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
@@ -17471,7 +17471,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>130</v>
@@ -17485,13 +17485,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -17499,7 +17499,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>130</v>
@@ -17513,13 +17513,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -17527,7 +17527,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>130</v>
@@ -17541,13 +17541,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -17555,13 +17555,13 @@
         <v>18</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -17583,7 +17583,7 @@
         <v>101</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>130</v>
@@ -17603,7 +17603,7 @@
         <v>130</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -17611,13 +17611,13 @@
         <v>101</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
@@ -17625,13 +17625,13 @@
         <v>101</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -17645,7 +17645,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
@@ -17653,13 +17653,13 @@
         <v>101</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
@@ -17667,13 +17667,13 @@
         <v>101</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -17687,7 +17687,7 @@
         <v>130</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51">
@@ -17695,13 +17695,13 @@
         <v>101</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
@@ -17709,13 +17709,13 @@
         <v>101</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
@@ -17723,13 +17723,13 @@
         <v>110</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -17737,13 +17737,13 @@
         <v>110</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -17751,13 +17751,13 @@
         <v>110</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -17771,7 +17771,7 @@
         <v>130</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -17779,7 +17779,7 @@
         <v>110</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>130</v>
@@ -17793,13 +17793,13 @@
         <v>110</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -17807,13 +17807,13 @@
         <v>110</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
@@ -17821,7 +17821,7 @@
         <v>110</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>130</v>
@@ -17835,13 +17835,13 @@
         <v>110</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -17849,7 +17849,7 @@
         <v>110</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>130</v>
@@ -17869,7 +17869,7 @@
         <v>130</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>257</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -17883,7 +17883,7 @@
         <v>130</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65">
@@ -17897,7 +17897,7 @@
         <v>130</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66">
@@ -17911,7 +17911,7 @@
         <v>130</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67">
@@ -17939,7 +17939,7 @@
         <v>130</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>187</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -17947,7 +17947,7 @@
         <v>133</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>130</v>
@@ -17961,13 +17961,13 @@
         <v>133</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -17975,7 +17975,7 @@
         <v>133</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>130</v>
@@ -18003,13 +18003,13 @@
         <v>133</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -18023,7 +18023,7 @@
         <v>130</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>261</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -18037,7 +18037,7 @@
         <v>130</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>340</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
@@ -18045,13 +18045,13 @@
         <v>140</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>118</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77">
@@ -18065,7 +18065,7 @@
         <v>130</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>160</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78">
@@ -18073,13 +18073,13 @@
         <v>140</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>344</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79">
@@ -18101,7 +18101,7 @@
         <v>148</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>130</v>
@@ -18115,7 +18115,7 @@
         <v>148</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>130</v>
@@ -18129,13 +18129,13 @@
         <v>148</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -18143,13 +18143,13 @@
         <v>148</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -18157,13 +18157,13 @@
         <v>148</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -18171,13 +18171,13 @@
         <v>148</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86">
@@ -18185,13 +18185,13 @@
         <v>148</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87">
@@ -18199,13 +18199,13 @@
         <v>148</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -18213,13 +18213,13 @@
         <v>148</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
@@ -18227,13 +18227,13 @@
         <v>148</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
@@ -18255,13 +18255,13 @@
         <v>160</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>261</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -18269,13 +18269,13 @@
         <v>160</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>13</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93">
@@ -18297,13 +18297,13 @@
         <v>160</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -18311,13 +18311,13 @@
         <v>160</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96">
@@ -18325,13 +18325,13 @@
         <v>160</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
@@ -18339,13 +18339,13 @@
         <v>160</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98">
@@ -18353,7 +18353,7 @@
         <v>160</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>130</v>
@@ -18373,7 +18373,7 @@
         <v>130</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -18387,7 +18387,7 @@
         <v>130</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>13</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101">
@@ -18437,13 +18437,13 @@
         <v>46</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -18451,13 +18451,13 @@
         <v>46</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
@@ -18465,13 +18465,13 @@
         <v>46</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107">
@@ -18479,13 +18479,13 @@
         <v>46</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108">
@@ -18493,13 +18493,13 @@
         <v>46</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
@@ -18507,13 +18507,13 @@
         <v>46</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110">
@@ -18521,13 +18521,13 @@
         <v>46</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111">
@@ -18535,13 +18535,13 @@
         <v>46</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
@@ -18549,13 +18549,13 @@
         <v>170</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>344</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -18563,13 +18563,13 @@
         <v>170</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>187</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114">
@@ -18577,13 +18577,13 @@
         <v>170</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>243</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115">
@@ -18591,13 +18591,13 @@
         <v>170</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>340</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116">
@@ -18605,13 +18605,13 @@
         <v>170</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117">
@@ -18625,7 +18625,7 @@
         <v>130</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118">
@@ -18639,7 +18639,7 @@
         <v>130</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119">
@@ -18647,7 +18647,7 @@
         <v>180</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>130</v>
@@ -18661,13 +18661,13 @@
         <v>105</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121">
@@ -18675,7 +18675,7 @@
         <v>105</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>130</v>
@@ -18689,13 +18689,13 @@
         <v>105</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123">
@@ -18703,13 +18703,13 @@
         <v>105</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124">
@@ -18717,7 +18717,7 @@
         <v>105</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>130</v>
@@ -18731,13 +18731,13 @@
         <v>105</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -18745,13 +18745,13 @@
         <v>105</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
@@ -18759,13 +18759,13 @@
         <v>105</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
@@ -18773,7 +18773,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>130</v>
@@ -18787,13 +18787,13 @@
         <v>105</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130">
@@ -18829,7 +18829,7 @@
         <v>162</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>130</v>
@@ -18843,7 +18843,7 @@
         <v>162</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>130</v>
@@ -18857,7 +18857,7 @@
         <v>162</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>130</v>
@@ -18877,7 +18877,7 @@
         <v>130</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136">
@@ -18885,7 +18885,7 @@
         <v>81</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>130</v>
@@ -18899,13 +18899,13 @@
         <v>81</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138">
@@ -18913,13 +18913,13 @@
         <v>81</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139">
@@ -18927,13 +18927,13 @@
         <v>81</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140">
@@ -18941,7 +18941,7 @@
         <v>132</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>130</v>
@@ -18955,13 +18955,13 @@
         <v>132</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142">
@@ -18989,7 +18989,7 @@
         <v>130</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
@@ -19011,13 +19011,13 @@
         <v>132</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146">
@@ -19025,13 +19025,13 @@
         <v>132</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147">
@@ -19039,13 +19039,13 @@
         <v>132</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -19087,7 +19087,7 @@
         <v>130</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>13</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151">
@@ -19095,13 +19095,13 @@
         <v>289</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -19109,7 +19109,7 @@
         <v>289</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>130</v>
@@ -19123,13 +19123,13 @@
         <v>289</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>273</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154">
@@ -19165,7 +19165,7 @@
         <v>75</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>130</v>
@@ -19179,13 +19179,13 @@
         <v>75</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -19193,13 +19193,13 @@
         <v>75</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159">
@@ -19207,7 +19207,7 @@
         <v>75</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>130</v>
@@ -19221,13 +19221,13 @@
         <v>75</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161">
@@ -19235,13 +19235,13 @@
         <v>75</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
@@ -19249,7 +19249,7 @@
         <v>87</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>130</v>
@@ -19263,13 +19263,13 @@
         <v>87</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164">
@@ -19277,13 +19277,13 @@
         <v>87</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -19291,13 +19291,13 @@
         <v>87</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -19305,13 +19305,13 @@
         <v>87</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167">
@@ -19325,7 +19325,7 @@
         <v>130</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168">
@@ -19333,13 +19333,13 @@
         <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
@@ -19347,13 +19347,13 @@
         <v>87</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170">
@@ -19361,7 +19361,7 @@
         <v>87</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>130</v>
@@ -19375,7 +19375,7 @@
         <v>87</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>130</v>
@@ -19389,7 +19389,7 @@
         <v>207</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>130</v>
@@ -19403,13 +19403,13 @@
         <v>207</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174">
@@ -19417,7 +19417,7 @@
         <v>207</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>130</v>
@@ -19431,13 +19431,13 @@
         <v>207</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176">
@@ -19445,13 +19445,13 @@
         <v>207</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
@@ -19459,13 +19459,13 @@
         <v>207</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178">
@@ -19473,13 +19473,13 @@
         <v>195</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179">
@@ -19487,13 +19487,13 @@
         <v>195</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
@@ -19501,7 +19501,7 @@
         <v>195</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>130</v>
@@ -19515,7 +19515,7 @@
         <v>195</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>130</v>
@@ -19535,7 +19535,7 @@
         <v>130</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183">
@@ -19543,13 +19543,13 @@
         <v>218</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -19557,7 +19557,7 @@
         <v>218</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>130</v>
@@ -19571,13 +19571,13 @@
         <v>218</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="186">
@@ -19585,7 +19585,7 @@
         <v>218</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>130</v>
@@ -19599,13 +19599,13 @@
         <v>218</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188">
@@ -19613,13 +19613,13 @@
         <v>218</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189">
@@ -19627,13 +19627,13 @@
         <v>202</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190">
@@ -19647,7 +19647,7 @@
         <v>130</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191">
@@ -19655,7 +19655,7 @@
         <v>202</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>130</v>
@@ -19669,13 +19669,13 @@
         <v>202</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
@@ -19683,13 +19683,13 @@
         <v>202</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -19697,13 +19697,13 @@
         <v>202</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -19711,13 +19711,13 @@
         <v>202</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="196">
@@ -19725,13 +19725,13 @@
         <v>202</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197">
@@ -19739,7 +19739,7 @@
         <v>215</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>130</v>
@@ -19753,7 +19753,7 @@
         <v>215</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>130</v>
@@ -19767,7 +19767,7 @@
         <v>215</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>130</v>
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>130</v>
@@ -19795,13 +19795,13 @@
         <v>231</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202">
@@ -19809,13 +19809,13 @@
         <v>231</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203">
@@ -19823,7 +19823,7 @@
         <v>231</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>130</v>
@@ -19837,13 +19837,13 @@
         <v>231</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="205">
@@ -19851,13 +19851,13 @@
         <v>231</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
@@ -19865,13 +19865,13 @@
         <v>152</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207">
@@ -19879,13 +19879,13 @@
         <v>152</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208">
@@ -19893,7 +19893,7 @@
         <v>152</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>130</v>
@@ -19907,7 +19907,7 @@
         <v>152</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>130</v>
@@ -19921,13 +19921,13 @@
         <v>152</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="211">
@@ -19935,13 +19935,13 @@
         <v>152</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212">
@@ -19949,13 +19949,13 @@
         <v>152</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="213">
@@ -19963,13 +19963,13 @@
         <v>152</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214">
@@ -19977,13 +19977,13 @@
         <v>152</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
@@ -19991,13 +19991,13 @@
         <v>152</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -20005,13 +20005,13 @@
         <v>152</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217">
@@ -20019,7 +20019,7 @@
         <v>236</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>130</v>
@@ -20047,13 +20047,13 @@
         <v>236</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220">
@@ -20061,13 +20061,13 @@
         <v>236</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="221">
@@ -20075,7 +20075,7 @@
         <v>236</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>130</v>
@@ -20089,13 +20089,13 @@
         <v>236</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223">
@@ -20103,7 +20103,7 @@
         <v>236</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>130</v>
@@ -20123,7 +20123,7 @@
         <v>130</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
@@ -20131,13 +20131,13 @@
         <v>236</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="226">
@@ -20145,13 +20145,13 @@
         <v>243</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="227">
@@ -20159,7 +20159,7 @@
         <v>243</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>130</v>
@@ -20173,13 +20173,13 @@
         <v>243</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
@@ -20187,13 +20187,13 @@
         <v>243</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230">
@@ -20201,13 +20201,13 @@
         <v>243</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
@@ -20215,7 +20215,7 @@
         <v>243</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>130</v>
@@ -20229,7 +20229,7 @@
         <v>243</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>130</v>
@@ -20243,13 +20243,13 @@
         <v>243</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>261</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234">
@@ -20257,13 +20257,13 @@
         <v>243</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>34</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235">
@@ -20271,13 +20271,13 @@
         <v>243</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236">
@@ -20285,13 +20285,13 @@
         <v>248</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
@@ -20299,13 +20299,13 @@
         <v>248</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="238">
@@ -20313,13 +20313,13 @@
         <v>248</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239">
@@ -20327,13 +20327,13 @@
         <v>248</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>344</v>
+        <v>126</v>
       </c>
     </row>
     <row r="240">
@@ -20341,13 +20341,13 @@
         <v>248</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>82</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241">
@@ -20355,13 +20355,13 @@
         <v>257</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242">
@@ -20369,13 +20369,13 @@
         <v>257</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243">
@@ -20383,13 +20383,13 @@
         <v>257</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>261</v>
+        <v>118</v>
       </c>
     </row>
     <row r="244">
@@ -20397,13 +20397,13 @@
         <v>257</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>34</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245">
@@ -20411,13 +20411,13 @@
         <v>295</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="246">
@@ -20425,13 +20425,13 @@
         <v>295</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247">
@@ -20439,13 +20439,13 @@
         <v>295</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>356</v>
+        <v>140</v>
       </c>
     </row>
     <row r="248">
@@ -20453,13 +20453,13 @@
         <v>295</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
@@ -20467,13 +20467,13 @@
         <v>295</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250">
@@ -20481,13 +20481,13 @@
         <v>295</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="251">
@@ -20495,13 +20495,13 @@
         <v>57</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -20509,7 +20509,7 @@
         <v>57</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>130</v>
@@ -20523,13 +20523,13 @@
         <v>57</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254">
@@ -20537,7 +20537,7 @@
         <v>57</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>130</v>
@@ -20551,13 +20551,13 @@
         <v>57</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256">
@@ -20565,13 +20565,13 @@
         <v>57</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257">
@@ -20579,13 +20579,13 @@
         <v>57</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D257" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258">
@@ -20593,13 +20593,13 @@
         <v>57</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D258" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
@@ -20607,13 +20607,13 @@
         <v>57</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D259" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="260">
@@ -20649,7 +20649,7 @@
         <v>300</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>130</v>
@@ -20663,13 +20663,13 @@
         <v>300</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>121</v>
+        <v>356</v>
       </c>
     </row>
     <row r="264">
@@ -20677,13 +20677,13 @@
         <v>300</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="265">
@@ -20691,13 +20691,13 @@
         <v>300</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
@@ -20705,13 +20705,13 @@
         <v>128</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D266" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267">
@@ -20719,7 +20719,7 @@
         <v>128</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>130</v>
@@ -20733,7 +20733,7 @@
         <v>128</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>130</v>
@@ -20747,13 +20747,13 @@
         <v>128</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D269" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270">
@@ -20761,7 +20761,7 @@
         <v>128</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>130</v>
@@ -20775,13 +20775,13 @@
         <v>128</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D271" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
@@ -20789,7 +20789,7 @@
         <v>128</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>130</v>
@@ -20803,7 +20803,7 @@
         <v>128</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>130</v>
@@ -20817,13 +20817,13 @@
         <v>128</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D274" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275">
@@ -20831,7 +20831,7 @@
         <v>43</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>130</v>
@@ -20845,13 +20845,13 @@
         <v>43</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D276" t="s" s="0">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="277">
@@ -20873,13 +20873,13 @@
         <v>43</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D278" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="279">
@@ -20887,13 +20887,13 @@
         <v>43</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D279" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280">
@@ -20901,13 +20901,13 @@
         <v>43</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D280" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
@@ -20915,7 +20915,7 @@
         <v>232</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>130</v>
@@ -20929,7 +20929,7 @@
         <v>232</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>130</v>
@@ -20943,7 +20943,7 @@
         <v>232</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>130</v>
@@ -20957,7 +20957,7 @@
         <v>232</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>130</v>
@@ -20971,7 +20971,7 @@
         <v>232</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>130</v>
@@ -20985,7 +20985,7 @@
         <v>138</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>130</v>
@@ -20999,13 +20999,13 @@
         <v>138</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D287" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288">
@@ -21013,7 +21013,7 @@
         <v>138</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>130</v>
@@ -21027,13 +21027,13 @@
         <v>138</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D289" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290">
@@ -21041,7 +21041,7 @@
         <v>138</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>130</v>
@@ -21061,7 +21061,7 @@
         <v>130</v>
       </c>
       <c r="D291" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292">
@@ -21069,7 +21069,7 @@
         <v>225</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>130</v>
@@ -21097,13 +21097,13 @@
         <v>225</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D294" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/forum-service_structure.xlsx
+++ b/data/backend/forum-service_structure.xlsx
@@ -939,105 +939,117 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>likesAmount</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
     <t>modificationDate</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>likesAmount</t>
-  </si>
-  <si>
-    <t>createDate</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>likedByUsers</t>
   </si>
   <si>
     <t>postId</t>
   </si>
   <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>likedResponses</t>
+  </si>
+  <si>
+    <t>likedPosts</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>responses</t>
   </si>
   <si>
-    <t>likedPosts</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>likedResponses</t>
-  </si>
-  <si>
-    <t>surname</t>
+    <t>userMapper</t>
   </si>
   <si>
     <t>postResponsesLikesMapper</t>
   </si>
   <si>
-    <t>userMapper</t>
-  </si>
-  <si>
     <t>response</t>
   </si>
   <si>
     <t>creationDate</t>
   </si>
   <si>
+    <t>userLikes</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
     <t>modificationTimestamp</t>
   </si>
   <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
     <t>topicId</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>topic</t>
   </si>
   <si>
-    <t>userLikes</t>
+    <t>userRepository</t>
+  </si>
+  <si>
+    <t>userModelEntityMapper</t>
   </si>
   <si>
     <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>userRepository</t>
-  </si>
-  <si>
-    <t>userModelEntityMapper</t>
+    <t>TOPIC_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>topicRepository</t>
   </si>
   <si>
-    <t>TOPIC_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>postRepository</t>
   </si>
   <si>
+    <t>postResponseMapper</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
+    <t>postResponseRepository</t>
+  </si>
+  <si>
     <t>postResponsesLikesRelationRepository</t>
   </si>
   <si>
@@ -1047,18 +1059,6 @@
     <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
-    <t>postResponseRepository</t>
-  </si>
-  <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
-    <t>postResponseMapper</t>
-  </si>
-  <si>
     <t>$SwitchMap$dto$topic$TopicSortingOrder</t>
   </si>
   <si>
@@ -1071,72 +1071,72 @@
     <t>responsesAmount</t>
   </si>
   <si>
+    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>RESPONSE_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
     <t>POST_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>topicService</t>
   </si>
   <si>
+    <t>topicDTOModelMapper</t>
+  </si>
+  <si>
+    <t>IDENTIFIER_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
     <t>IDENTIFIER_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>IDENTIFIER_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>topicDTOModelMapper</t>
+    <t>postMapper</t>
   </si>
   <si>
     <t>postLikesRelationRepository</t>
   </si>
   <si>
-    <t>postMapper</t>
+    <t>userDTOModelMapper</t>
   </si>
   <si>
     <t>postLikesMapper</t>
   </si>
   <si>
-    <t>userDTOModelMapper</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>parentTopic</t>
+  </si>
+  <si>
     <t>childTopics</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
-    <t>parentTopic</t>
+    <t>postService</t>
+  </si>
+  <si>
+    <t>postDTOModelMapper</t>
+  </si>
+  <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>postService</t>
-  </si>
-  <si>
     <t>postLikesDTOModelMapper</t>
   </si>
   <si>
-    <t>postDTOModelMapper</t>
-  </si>
-  <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>postsAmount</t>
   </si>
   <si>
@@ -1146,19 +1146,19 @@
     <t>postResponsesLikesDTOModelMapper</t>
   </si>
   <si>
+    <t>postResponseDTOModelMapper</t>
+  </si>
+  <si>
     <t>postResponseService</t>
   </si>
   <si>
-    <t>postResponseDTOModelMapper</t>
-  </si>
-  <si>
     <t>$SwitchMap$enums$PostSortingOrder</t>
   </si>
   <si>
+    <t>userService</t>
+  </si>
+  <si>
     <t>USER_EMAIL_NULL_EMPTY_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userService</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -23558,7 +23558,7 @@
         <v>130</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -23586,7 +23586,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -23600,7 +23600,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -23614,7 +23614,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -23628,7 +23628,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -23642,7 +23642,7 @@
         <v>130</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -23664,13 +23664,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -23678,13 +23678,13 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -23692,7 +23692,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>130</v>
@@ -23706,13 +23706,13 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -23720,13 +23720,13 @@
         <v>44</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -23734,13 +23734,13 @@
         <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -23748,7 +23748,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>130</v>
@@ -23762,13 +23762,13 @@
         <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -23776,13 +23776,13 @@
         <v>49</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -23790,7 +23790,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>130</v>
@@ -23804,13 +23804,13 @@
         <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -23818,13 +23818,13 @@
         <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -23832,13 +23832,13 @@
         <v>49</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -23846,7 +23846,7 @@
         <v>49</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>130</v>
@@ -23860,13 +23860,13 @@
         <v>49</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -23894,7 +23894,7 @@
         <v>130</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -23908,7 +23908,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -23922,7 +23922,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -23936,7 +23936,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
@@ -23950,7 +23950,7 @@
         <v>130</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -23958,13 +23958,13 @@
         <v>78</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -23972,13 +23972,13 @@
         <v>78</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -23986,13 +23986,13 @@
         <v>78</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
@@ -24000,7 +24000,7 @@
         <v>78</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>130</v>
@@ -24014,13 +24014,13 @@
         <v>18</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
@@ -24028,7 +24028,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>130</v>
@@ -24048,7 +24048,7 @@
         <v>130</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -24056,13 +24056,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -24070,13 +24070,13 @@
         <v>18</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -24084,13 +24084,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -24098,7 +24098,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>130</v>
@@ -24112,7 +24112,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>130</v>
@@ -24132,7 +24132,7 @@
         <v>130</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -24140,13 +24140,13 @@
         <v>101</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -24154,7 +24154,7 @@
         <v>101</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>130</v>
@@ -24168,13 +24168,13 @@
         <v>101</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
@@ -24188,7 +24188,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
@@ -24202,7 +24202,7 @@
         <v>130</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
@@ -24210,13 +24210,13 @@
         <v>101</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -24224,13 +24224,13 @@
         <v>101</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -24244,7 +24244,7 @@
         <v>130</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>132</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -24258,7 +24258,7 @@
         <v>130</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -24266,13 +24266,13 @@
         <v>110</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -24280,13 +24280,13 @@
         <v>110</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
@@ -24294,7 +24294,7 @@
         <v>110</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>130</v>
@@ -24308,7 +24308,7 @@
         <v>110</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>130</v>
@@ -24322,13 +24322,13 @@
         <v>110</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
@@ -24336,7 +24336,7 @@
         <v>110</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>130</v>
@@ -24350,13 +24350,13 @@
         <v>110</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -24364,13 +24364,13 @@
         <v>110</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -24378,13 +24378,13 @@
         <v>110</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -24392,13 +24392,13 @@
         <v>110</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -24412,7 +24412,7 @@
         <v>130</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64">
@@ -24426,7 +24426,7 @@
         <v>130</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65">
@@ -24440,7 +24440,7 @@
         <v>130</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>257</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -24454,7 +24454,7 @@
         <v>130</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -24468,7 +24468,7 @@
         <v>130</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
@@ -24490,7 +24490,7 @@
         <v>133</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>130</v>
@@ -24504,7 +24504,7 @@
         <v>133</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>130</v>
@@ -24518,7 +24518,7 @@
         <v>133</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>130</v>
@@ -24532,7 +24532,7 @@
         <v>133</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>130</v>
@@ -24546,7 +24546,7 @@
         <v>133</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>130</v>
@@ -24566,7 +24566,7 @@
         <v>130</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -24608,7 +24608,7 @@
         <v>130</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>343</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
@@ -24616,13 +24616,13 @@
         <v>140</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>160</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79">
@@ -24644,7 +24644,7 @@
         <v>148</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>130</v>
@@ -24658,13 +24658,13 @@
         <v>148</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -24672,13 +24672,13 @@
         <v>148</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -24686,7 +24686,7 @@
         <v>148</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>130</v>
@@ -24700,13 +24700,13 @@
         <v>148</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85">
@@ -24714,13 +24714,13 @@
         <v>148</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -24728,13 +24728,13 @@
         <v>148</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
@@ -24742,7 +24742,7 @@
         <v>148</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>130</v>
@@ -24756,13 +24756,13 @@
         <v>148</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -24784,7 +24784,7 @@
         <v>148</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>130</v>
@@ -24798,13 +24798,13 @@
         <v>160</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>261</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -24812,13 +24812,13 @@
         <v>160</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>118</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93">
@@ -24826,13 +24826,13 @@
         <v>160</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
@@ -24854,13 +24854,13 @@
         <v>160</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96">
@@ -24868,13 +24868,13 @@
         <v>160</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
@@ -24930,7 +24930,7 @@
         <v>130</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>13</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101">
@@ -24972,7 +24972,7 @@
         <v>130</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>211</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -24980,13 +24980,13 @@
         <v>46</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105">
@@ -24994,13 +24994,13 @@
         <v>46</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106">
@@ -25022,13 +25022,13 @@
         <v>46</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -25042,7 +25042,7 @@
         <v>130</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109">
@@ -25056,7 +25056,7 @@
         <v>130</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110">
@@ -25064,13 +25064,13 @@
         <v>46</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111">
@@ -25084,7 +25084,7 @@
         <v>130</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112">
@@ -25092,13 +25092,13 @@
         <v>170</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113">
@@ -25120,13 +25120,13 @@
         <v>170</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115">
@@ -25134,13 +25134,13 @@
         <v>170</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>343</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -25148,13 +25148,13 @@
         <v>170</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>243</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117">
@@ -25162,13 +25162,13 @@
         <v>180</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>211</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118">
@@ -25176,7 +25176,7 @@
         <v>180</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>130</v>
@@ -25190,13 +25190,13 @@
         <v>180</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>268</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120">
@@ -25204,13 +25204,13 @@
         <v>105</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -25218,13 +25218,13 @@
         <v>105</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -25232,13 +25232,13 @@
         <v>105</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
@@ -25246,13 +25246,13 @@
         <v>105</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
@@ -25260,13 +25260,13 @@
         <v>105</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125">
@@ -25274,13 +25274,13 @@
         <v>105</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126">
@@ -25288,13 +25288,13 @@
         <v>105</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127">
@@ -25302,13 +25302,13 @@
         <v>105</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128">
@@ -25322,7 +25322,7 @@
         <v>130</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129">
@@ -25330,13 +25330,13 @@
         <v>105</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130">
@@ -25344,7 +25344,7 @@
         <v>162</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>130</v>
@@ -25358,13 +25358,13 @@
         <v>162</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132">
@@ -25372,13 +25372,13 @@
         <v>162</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -25386,7 +25386,7 @@
         <v>162</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>130</v>
@@ -25400,13 +25400,13 @@
         <v>162</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135">
@@ -25414,13 +25414,13 @@
         <v>81</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136">
@@ -25428,13 +25428,13 @@
         <v>81</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137">
@@ -25442,7 +25442,7 @@
         <v>81</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>130</v>
@@ -25490,7 +25490,7 @@
         <v>130</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -25498,13 +25498,13 @@
         <v>132</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142">
@@ -25512,13 +25512,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>54</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
@@ -25526,13 +25526,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
@@ -25540,13 +25540,13 @@
         <v>132</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -25554,13 +25554,13 @@
         <v>132</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146">
@@ -25568,13 +25568,13 @@
         <v>132</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147">
@@ -25582,13 +25582,13 @@
         <v>132</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
@@ -25596,13 +25596,13 @@
         <v>289</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>356</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149">
@@ -25610,13 +25610,13 @@
         <v>289</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150">
@@ -25624,13 +25624,13 @@
         <v>289</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -25638,7 +25638,7 @@
         <v>289</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>130</v>
@@ -25652,13 +25652,13 @@
         <v>289</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153">
@@ -25672,7 +25672,7 @@
         <v>130</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>273</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -25686,7 +25686,7 @@
         <v>130</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>180</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
@@ -25700,7 +25700,7 @@
         <v>130</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>13</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156">
@@ -25708,7 +25708,7 @@
         <v>75</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>130</v>
@@ -25722,7 +25722,7 @@
         <v>75</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>130</v>
@@ -25736,7 +25736,7 @@
         <v>75</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>130</v>
@@ -25750,7 +25750,7 @@
         <v>75</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>130</v>
@@ -25764,7 +25764,7 @@
         <v>75</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>130</v>
@@ -25778,7 +25778,7 @@
         <v>75</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>130</v>
@@ -25792,13 +25792,13 @@
         <v>87</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163">
@@ -25806,13 +25806,13 @@
         <v>87</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
@@ -25848,13 +25848,13 @@
         <v>87</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -25862,7 +25862,7 @@
         <v>87</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>130</v>
@@ -25876,13 +25876,13 @@
         <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169">
@@ -25890,13 +25890,13 @@
         <v>87</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
@@ -25904,13 +25904,13 @@
         <v>87</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
@@ -25918,13 +25918,13 @@
         <v>87</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172">
@@ -25932,13 +25932,13 @@
         <v>207</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -25946,7 +25946,7 @@
         <v>207</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>130</v>
@@ -25960,13 +25960,13 @@
         <v>207</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
@@ -25974,13 +25974,13 @@
         <v>207</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
@@ -25988,13 +25988,13 @@
         <v>207</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177">
@@ -26008,7 +26008,7 @@
         <v>130</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
@@ -26016,7 +26016,7 @@
         <v>195</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>130</v>
@@ -26030,7 +26030,7 @@
         <v>195</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>130</v>
@@ -26044,13 +26044,13 @@
         <v>195</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181">
@@ -26072,13 +26072,13 @@
         <v>195</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183">
@@ -26100,13 +26100,13 @@
         <v>218</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185">
@@ -26114,13 +26114,13 @@
         <v>218</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186">
@@ -26128,13 +26128,13 @@
         <v>218</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="187">
@@ -26142,13 +26142,13 @@
         <v>218</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
@@ -26156,13 +26156,13 @@
         <v>218</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189">
@@ -26170,13 +26170,13 @@
         <v>202</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190">
@@ -26184,13 +26184,13 @@
         <v>202</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="191">
@@ -26198,7 +26198,7 @@
         <v>202</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>130</v>
@@ -26212,13 +26212,13 @@
         <v>202</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193">
@@ -26226,13 +26226,13 @@
         <v>202</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
@@ -26240,13 +26240,13 @@
         <v>202</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195">
@@ -26254,13 +26254,13 @@
         <v>202</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
@@ -26268,7 +26268,7 @@
         <v>202</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>130</v>
@@ -26282,7 +26282,7 @@
         <v>215</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>130</v>
@@ -26302,7 +26302,7 @@
         <v>130</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199">
@@ -26310,7 +26310,7 @@
         <v>215</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>130</v>
@@ -26324,13 +26324,13 @@
         <v>215</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
@@ -26338,7 +26338,7 @@
         <v>231</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>130</v>
@@ -26352,13 +26352,13 @@
         <v>231</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
@@ -26366,13 +26366,13 @@
         <v>231</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204">
@@ -26380,13 +26380,13 @@
         <v>231</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205">
@@ -26394,13 +26394,13 @@
         <v>231</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206">
@@ -26408,7 +26408,7 @@
         <v>152</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>130</v>
@@ -26422,13 +26422,13 @@
         <v>152</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208">
@@ -26436,13 +26436,13 @@
         <v>152</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="209">
@@ -26450,13 +26450,13 @@
         <v>152</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210">
@@ -26464,13 +26464,13 @@
         <v>152</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
@@ -26478,13 +26478,13 @@
         <v>152</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="212">
@@ -26492,7 +26492,7 @@
         <v>152</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>130</v>
@@ -26506,13 +26506,13 @@
         <v>152</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="214">
@@ -26526,7 +26526,7 @@
         <v>130</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215">
@@ -26534,13 +26534,13 @@
         <v>152</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="216">
@@ -26548,13 +26548,13 @@
         <v>152</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217">
@@ -26562,13 +26562,13 @@
         <v>236</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218">
@@ -26576,13 +26576,13 @@
         <v>236</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="219">
@@ -26590,13 +26590,13 @@
         <v>236</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220">
@@ -26604,13 +26604,13 @@
         <v>236</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221">
@@ -26618,13 +26618,13 @@
         <v>236</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
@@ -26632,13 +26632,13 @@
         <v>236</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223">
@@ -26666,7 +26666,7 @@
         <v>130</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
@@ -26674,13 +26674,13 @@
         <v>236</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="226">
@@ -26688,13 +26688,13 @@
         <v>243</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>261</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227">
@@ -26702,13 +26702,13 @@
         <v>243</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>257</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
@@ -26716,13 +26716,13 @@
         <v>243</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229">
@@ -26730,7 +26730,7 @@
         <v>243</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>130</v>
@@ -26744,13 +26744,13 @@
         <v>243</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231">
@@ -26758,13 +26758,13 @@
         <v>243</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
@@ -26772,13 +26772,13 @@
         <v>243</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>13</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233">
@@ -26786,13 +26786,13 @@
         <v>243</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>13</v>
+        <v>261</v>
       </c>
     </row>
     <row r="234">
@@ -26800,13 +26800,13 @@
         <v>243</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="235">
@@ -26814,13 +26814,13 @@
         <v>243</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>187</v>
+        <v>126</v>
       </c>
     </row>
     <row r="236">
@@ -26828,13 +26828,13 @@
         <v>248</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="237">
@@ -26842,13 +26842,13 @@
         <v>248</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>340</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
@@ -26862,7 +26862,7 @@
         <v>130</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239">
@@ -26870,13 +26870,13 @@
         <v>248</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>82</v>
+        <v>344</v>
       </c>
     </row>
     <row r="240">
@@ -26898,13 +26898,13 @@
         <v>257</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242">
@@ -26926,13 +26926,13 @@
         <v>257</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="244">
@@ -26954,13 +26954,13 @@
         <v>295</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246">
@@ -26968,13 +26968,13 @@
         <v>295</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247">
@@ -26982,13 +26982,13 @@
         <v>295</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
@@ -26996,13 +26996,13 @@
         <v>295</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>140</v>
+        <v>356</v>
       </c>
     </row>
     <row r="249">
@@ -27016,7 +27016,7 @@
         <v>130</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="250">
@@ -27024,7 +27024,7 @@
         <v>295</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>130</v>
@@ -27038,13 +27038,13 @@
         <v>57</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252">
@@ -27052,13 +27052,13 @@
         <v>57</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="253">
@@ -27066,7 +27066,7 @@
         <v>57</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>130</v>
@@ -27094,13 +27094,13 @@
         <v>57</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
@@ -27108,13 +27108,13 @@
         <v>57</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257">
@@ -27122,7 +27122,7 @@
         <v>57</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>130</v>
@@ -27150,7 +27150,7 @@
         <v>57</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>130</v>
@@ -27164,13 +27164,13 @@
         <v>57</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D260" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261">
@@ -27198,7 +27198,7 @@
         <v>130</v>
       </c>
       <c r="D262" t="s" s="0">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="263">
@@ -27206,7 +27206,7 @@
         <v>300</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>130</v>
@@ -27220,13 +27220,13 @@
         <v>300</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
@@ -27234,13 +27234,13 @@
         <v>300</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>121</v>
+        <v>356</v>
       </c>
     </row>
     <row r="266">
@@ -27248,13 +27248,13 @@
         <v>128</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D266" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="267">
@@ -27262,13 +27262,13 @@
         <v>128</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D267" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268">
@@ -27276,7 +27276,7 @@
         <v>128</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>130</v>
@@ -27290,13 +27290,13 @@
         <v>128</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D269" t="s" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="270">
@@ -27304,13 +27304,13 @@
         <v>128</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D270" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="271">
@@ -27318,7 +27318,7 @@
         <v>128</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>130</v>
@@ -27332,7 +27332,7 @@
         <v>128</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>130</v>
@@ -27346,13 +27346,13 @@
         <v>128</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D273" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="274">
@@ -27360,7 +27360,7 @@
         <v>128</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>130</v>
@@ -27374,13 +27374,13 @@
         <v>43</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D275" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276">
@@ -27388,13 +27388,13 @@
         <v>43</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D276" t="s" s="0">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="277">
@@ -27402,13 +27402,13 @@
         <v>43</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D277" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="278">
@@ -27430,13 +27430,13 @@
         <v>43</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D279" t="s" s="0">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="280">
@@ -27444,13 +27444,13 @@
         <v>43</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D280" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="281">
@@ -27464,7 +27464,7 @@
         <v>130</v>
       </c>
       <c r="D281" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282">
@@ -27472,7 +27472,7 @@
         <v>232</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>130</v>
@@ -27486,13 +27486,13 @@
         <v>232</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D283" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="284">
@@ -27500,7 +27500,7 @@
         <v>232</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>130</v>
@@ -27528,7 +27528,7 @@
         <v>138</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>130</v>
@@ -27542,13 +27542,13 @@
         <v>138</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D287" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288">
@@ -27556,13 +27556,13 @@
         <v>138</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D288" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289">
@@ -27570,7 +27570,7 @@
         <v>138</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>130</v>
@@ -27584,7 +27584,7 @@
         <v>138</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>130</v>
@@ -27598,7 +27598,7 @@
         <v>225</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>130</v>
@@ -27612,13 +27612,13 @@
         <v>225</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D292" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="293">
@@ -27626,7 +27626,7 @@
         <v>225</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>130</v>
@@ -27640,13 +27640,13 @@
         <v>225</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>130</v>
       </c>
       <c r="D294" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/forum-service_structure.xlsx
+++ b/data/backend/forum-service_structure.xlsx
@@ -1260,9 +1260,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>257</t>
   </si>
   <si>
@@ -1299,43 +1296,46 @@
     <t>118</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>PostResponseOutputModel$PostResponseOutputModelBuilder()</t>
+  </si>
+  <si>
+    <t>PostResponseEntity$PostResponseEntityBuilder()</t>
+  </si>
+  <si>
+    <t>UserEntity(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.time.LocalDateTime, java.time.LocalDateTime, java.util.Set, java.util.Set, java.util.Set, java.util.Set)</t>
+  </si>
+  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>PostResponseOutputModel$PostResponseOutputModelBuilder()</t>
-  </si>
-  <si>
-    <t>PostResponseEntity$PostResponseEntityBuilder()</t>
-  </si>
-  <si>
-    <t>UserEntity(java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.time.LocalDateTime, java.time.LocalDateTime, java.util.Set, java.util.Set, java.util.Set, java.util.Set)</t>
   </si>
   <si>
     <t>UserEntity()</t>
@@ -17072,7 +17072,7 @@
         <v>147</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18">
@@ -17080,7 +17080,7 @@
         <v>148</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19">
@@ -17096,7 +17096,7 @@
         <v>281</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21">
@@ -17104,7 +17104,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22">
@@ -17112,7 +17112,7 @@
         <v>170</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23">
@@ -17120,7 +17120,7 @@
         <v>180</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24">
@@ -17152,7 +17152,7 @@
         <v>81</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28">
@@ -17160,7 +17160,7 @@
         <v>132</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
@@ -17168,7 +17168,7 @@
         <v>289</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30">
@@ -17176,7 +17176,7 @@
         <v>75</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31">
@@ -17184,7 +17184,7 @@
         <v>87</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32">
@@ -17192,7 +17192,7 @@
         <v>207</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33">
@@ -17208,7 +17208,7 @@
         <v>211</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35">
@@ -17224,7 +17224,7 @@
         <v>218</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37">
@@ -17248,7 +17248,7 @@
         <v>215</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40">
@@ -17256,7 +17256,7 @@
         <v>226</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41">
@@ -17272,7 +17272,7 @@
         <v>152</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43">
@@ -17280,7 +17280,7 @@
         <v>236</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44">
@@ -17288,7 +17288,7 @@
         <v>239</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45">
@@ -17296,7 +17296,7 @@
         <v>243</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46">
@@ -17304,7 +17304,7 @@
         <v>248</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
@@ -17312,7 +17312,7 @@
         <v>257</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
@@ -17320,7 +17320,7 @@
         <v>295</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49">
@@ -17328,7 +17328,7 @@
         <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
@@ -17352,7 +17352,7 @@
         <v>262</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53">
@@ -17368,7 +17368,7 @@
         <v>264</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55">
@@ -17376,7 +17376,7 @@
         <v>300</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56">
@@ -17384,7 +17384,7 @@
         <v>128</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57">
@@ -17392,7 +17392,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58">
@@ -17400,7 +17400,7 @@
         <v>268</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
@@ -17416,7 +17416,7 @@
         <v>272</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61">
@@ -17424,7 +17424,7 @@
         <v>273</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62">
@@ -17440,7 +17440,7 @@
         <v>225</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -17582,7 +17582,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>385</v>
@@ -17758,7 +17758,7 @@
         <v>44</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>385</v>
@@ -18000,10 +18000,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>437</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>425</v>
       </c>
     </row>
     <row r="51">
@@ -18751,7 +18751,7 @@
         <v>122</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119">
@@ -19048,7 +19048,7 @@
         <v>142</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146">
@@ -19389,7 +19389,7 @@
         <v>163</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177">
@@ -19444,7 +19444,7 @@
         <v>287</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182">
@@ -19455,7 +19455,7 @@
         <v>285</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183">
@@ -19466,7 +19466,7 @@
         <v>253</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="184">
@@ -19477,7 +19477,7 @@
         <v>283</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185">
@@ -19774,7 +19774,7 @@
         <v>174</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212">
@@ -19807,7 +19807,7 @@
         <v>142</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215">
@@ -20115,7 +20115,7 @@
         <v>466</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243">
@@ -20720,7 +20720,7 @@
         <v>290</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="298">
@@ -20731,7 +20731,7 @@
         <v>174</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="299">
@@ -20742,7 +20742,7 @@
         <v>179</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="300">
@@ -20764,7 +20764,7 @@
         <v>291</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="302">
@@ -20797,7 +20797,7 @@
         <v>473</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="305">
@@ -20995,7 +20995,7 @@
         <v>476</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="323">
@@ -21281,7 +21281,7 @@
         <v>478</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="349">
@@ -21424,7 +21424,7 @@
         <v>480</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="362">
@@ -21754,7 +21754,7 @@
         <v>484</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="392">
@@ -21908,7 +21908,7 @@
         <v>486</v>
       </c>
       <c r="C405" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="406">
@@ -22359,7 +22359,7 @@
         <v>491</v>
       </c>
       <c r="C446" t="s" s="0">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="447">
@@ -22447,7 +22447,7 @@
         <v>253</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="455">
@@ -22491,7 +22491,7 @@
         <v>142</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="459">
@@ -22524,7 +22524,7 @@
         <v>494</v>
       </c>
       <c r="C461" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="462">
@@ -22557,7 +22557,7 @@
         <v>495</v>
       </c>
       <c r="C464" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="465">
@@ -22579,7 +22579,7 @@
         <v>298</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="467">
@@ -22601,7 +22601,7 @@
         <v>296</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="469">
@@ -22634,7 +22634,7 @@
         <v>496</v>
       </c>
       <c r="C471" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="472">
@@ -23261,7 +23261,7 @@
         <v>22</v>
       </c>
       <c r="C528" t="s" s="0">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="529">
@@ -23448,7 +23448,7 @@
         <v>501</v>
       </c>
       <c r="C545" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="546">
@@ -23492,7 +23492,7 @@
         <v>503</v>
       </c>
       <c r="C549" t="s" s="0">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="550">
@@ -23789,7 +23789,7 @@
         <v>505</v>
       </c>
       <c r="C576" t="s" s="0">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="577">

--- a/data/backend/forum-service_structure.xlsx
+++ b/data/backend/forum-service_structure.xlsx
@@ -1110,103 +1110,118 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>likesAmount</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>likedByUsers</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>modificationDate</t>
+  </si>
+  <si>
     <t>createDate</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>likedByUsers</t>
-  </si>
-  <si>
-    <t>modificationDate</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>likesAmount</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>postId</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>responses</t>
+  </si>
+  <si>
     <t>emailAddress</t>
   </si>
   <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>likedPosts</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>responses</t>
-  </si>
-  <si>
     <t>likedResponses</t>
   </si>
   <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>likedPosts</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>postResponsesLikesMapper</t>
   </si>
   <si>
     <t>userMapper</t>
   </si>
   <si>
-    <t>postResponsesLikesMapper</t>
-  </si>
-  <si>
     <t>creationDate</t>
   </si>
   <si>
     <t>response</t>
   </si>
   <si>
+    <t>topicId</t>
+  </si>
+  <si>
+    <t>modificationTimestamp</t>
+  </si>
+  <si>
+    <t>userLikes</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
     <t>creationTimestamp</t>
   </si>
   <si>
-    <t>topicId</t>
-  </si>
-  <si>
-    <t>userLikes</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>modificationTimestamp</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>userRepository</t>
   </si>
   <si>
+    <t>userModelEntityMapper</t>
+  </si>
+  <si>
     <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>userModelEntityMapper</t>
+    <t>postRepository</t>
+  </si>
+  <si>
+    <t>topicRepository</t>
   </si>
   <si>
     <t>TOPIC_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>topicRepository</t>
-  </si>
-  <si>
-    <t>postRepository</t>
+    <t>postResponsesLikesRelationRepository</t>
+  </si>
+  <si>
+    <t>postResponseRepository</t>
+  </si>
+  <si>
+    <t>postResponseMapper</t>
+  </si>
+  <si>
+    <t>rsqlVisitor</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
     <t>rsqlParser</t>
@@ -1215,21 +1230,6 @@
     <t>cz.jirutka.rsql.parser.RSQLParser</t>
   </si>
   <si>
-    <t>postResponseRepository</t>
-  </si>
-  <si>
-    <t>postResponseMapper</t>
-  </si>
-  <si>
-    <t>postResponsesLikesRelationRepository</t>
-  </si>
-  <si>
-    <t>rsqlVisitor</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.PersistentRSQLVisitor</t>
-  </si>
-  <si>
     <t>$SwitchMap$dto$topic$TopicSortingOrder</t>
   </si>
   <si>
@@ -1242,30 +1242,30 @@
     <t>POST_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>RESPONSE_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>USER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>IDENTIFIER_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIER_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>topicService</t>
   </si>
   <si>
-    <t>IDENTIFIER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIER_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>topicDTOModelMapper</t>
   </si>
   <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
     <t>postLikesRelationRepository</t>
   </si>
   <si>
@@ -1290,43 +1290,43 @@
     <t>childTopics</t>
   </si>
   <si>
+    <t>postService</t>
+  </si>
+  <si>
+    <t>postDTOModelMapper</t>
+  </si>
+  <si>
+    <t>postLikesDTOModelMapper</t>
+  </si>
+  <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>postLikesDTOModelMapper</t>
-  </si>
-  <si>
-    <t>postService</t>
-  </si>
-  <si>
-    <t>postDTOModelMapper</t>
-  </si>
-  <si>
     <t>postsAmount</t>
   </si>
   <si>
     <t>topicMapper</t>
   </si>
   <si>
+    <t>postResponseDTOModelMapper</t>
+  </si>
+  <si>
     <t>postResponsesLikesDTOModelMapper</t>
   </si>
   <si>
-    <t>postResponseDTOModelMapper</t>
-  </si>
-  <si>
     <t>postResponseService</t>
   </si>
   <si>
     <t>$SwitchMap$enums$PostSortingOrder</t>
   </si>
   <si>
+    <t>USER_EMAIL_NULL_EMPTY_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>userService</t>
-  </si>
-  <si>
-    <t>USER_EMAIL_NULL_EMPTY_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -25156,7 +25156,7 @@
         <v>141</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -25170,7 +25170,7 @@
         <v>141</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -25212,7 +25212,7 @@
         <v>141</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -25240,7 +25240,7 @@
         <v>141</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -25254,7 +25254,7 @@
         <v>141</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -25268,7 +25268,7 @@
         <v>141</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -25276,13 +25276,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -25304,13 +25304,13 @@
         <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -25318,7 +25318,7 @@
         <v>46</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>141</v>
@@ -25332,13 +25332,13 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -25346,13 +25346,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -25360,13 +25360,13 @@
         <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -25374,13 +25374,13 @@
         <v>52</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -25388,7 +25388,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>141</v>
@@ -25402,7 +25402,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>141</v>
@@ -25416,13 +25416,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -25430,7 +25430,7 @@
         <v>52</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>141</v>
@@ -25444,13 +25444,13 @@
         <v>52</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -25458,13 +25458,13 @@
         <v>52</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -25478,7 +25478,7 @@
         <v>141</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -25486,13 +25486,13 @@
         <v>52</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -25500,13 +25500,13 @@
         <v>52</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -25520,7 +25520,7 @@
         <v>141</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>316</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
@@ -25534,7 +25534,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30">
@@ -25556,13 +25556,13 @@
         <v>84</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -25570,13 +25570,13 @@
         <v>84</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -25584,13 +25584,13 @@
         <v>84</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -25598,13 +25598,13 @@
         <v>84</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -25612,7 +25612,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>141</v>
@@ -25626,13 +25626,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -25640,13 +25640,13 @@
         <v>18</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -25654,13 +25654,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -25668,13 +25668,13 @@
         <v>18</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -25682,13 +25682,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -25696,7 +25696,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>141</v>
@@ -25710,13 +25710,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -25730,7 +25730,7 @@
         <v>141</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -25738,13 +25738,13 @@
         <v>109</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -25752,13 +25752,13 @@
         <v>109</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -25780,13 +25780,13 @@
         <v>109</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -25794,13 +25794,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -25808,13 +25808,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -25822,13 +25822,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -25836,13 +25836,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52">
@@ -25850,13 +25850,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
@@ -25864,7 +25864,7 @@
         <v>119</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>141</v>
@@ -25878,13 +25878,13 @@
         <v>119</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -25892,13 +25892,13 @@
         <v>119</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -25906,7 +25906,7 @@
         <v>119</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>141</v>
@@ -25920,13 +25920,13 @@
         <v>119</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -25934,13 +25934,13 @@
         <v>119</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
@@ -25948,13 +25948,13 @@
         <v>119</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -25962,13 +25962,13 @@
         <v>119</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -25976,13 +25976,13 @@
         <v>119</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -25990,7 +25990,7 @@
         <v>119</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>141</v>
@@ -26024,7 +26024,7 @@
         <v>141</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>13</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65">
@@ -26038,7 +26038,7 @@
         <v>141</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>300</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -26052,7 +26052,7 @@
         <v>141</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67">
@@ -26080,7 +26080,7 @@
         <v>141</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -26088,13 +26088,13 @@
         <v>145</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -26102,7 +26102,7 @@
         <v>145</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>141</v>
@@ -26116,7 +26116,7 @@
         <v>145</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>141</v>
@@ -26130,13 +26130,13 @@
         <v>145</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -26144,7 +26144,7 @@
         <v>145</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>141</v>
@@ -26164,7 +26164,7 @@
         <v>141</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>396</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
@@ -26172,7 +26172,7 @@
         <v>153</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>141</v>
@@ -26186,7 +26186,7 @@
         <v>153</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>141</v>
@@ -26200,13 +26200,13 @@
         <v>153</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>128</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78">
@@ -26242,13 +26242,13 @@
         <v>162</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -26256,13 +26256,13 @@
         <v>162</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -26270,13 +26270,13 @@
         <v>162</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -26298,13 +26298,13 @@
         <v>162</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -26312,13 +26312,13 @@
         <v>162</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
@@ -26326,13 +26326,13 @@
         <v>162</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
@@ -26340,13 +26340,13 @@
         <v>162</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
@@ -26354,13 +26354,13 @@
         <v>162</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -26368,13 +26368,13 @@
         <v>162</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
@@ -26382,13 +26382,13 @@
         <v>162</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>139</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91">
@@ -26396,13 +26396,13 @@
         <v>175</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92">
@@ -26410,13 +26410,13 @@
         <v>175</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>128</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93">
@@ -26424,13 +26424,13 @@
         <v>175</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -26438,13 +26438,13 @@
         <v>175</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>13</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95">
@@ -26452,13 +26452,13 @@
         <v>175</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>306</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
@@ -26466,13 +26466,13 @@
         <v>175</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>300</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -26480,13 +26480,13 @@
         <v>175</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
@@ -26514,7 +26514,7 @@
         <v>141</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>290</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100">
@@ -26522,7 +26522,7 @@
         <v>334</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>141</v>
@@ -26536,7 +26536,7 @@
         <v>334</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>141</v>
@@ -26550,13 +26550,13 @@
         <v>334</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>241</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103">
@@ -26564,13 +26564,13 @@
         <v>334</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>413</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104">
@@ -26578,13 +26578,13 @@
         <v>48</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105">
@@ -26592,13 +26592,13 @@
         <v>48</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106">
@@ -26606,7 +26606,7 @@
         <v>48</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>141</v>
@@ -26620,13 +26620,13 @@
         <v>48</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108">
@@ -26634,7 +26634,7 @@
         <v>48</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>141</v>
@@ -26648,13 +26648,13 @@
         <v>48</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
@@ -26662,13 +26662,13 @@
         <v>48</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -26676,13 +26676,13 @@
         <v>48</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
@@ -26690,13 +26690,13 @@
         <v>188</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>401</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
@@ -26704,13 +26704,13 @@
         <v>188</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>209</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114">
@@ -26718,13 +26718,13 @@
         <v>188</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -26732,13 +26732,13 @@
         <v>188</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>36</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116">
@@ -26746,13 +26746,13 @@
         <v>188</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>284</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117">
@@ -26774,13 +26774,13 @@
         <v>199</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>316</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119">
@@ -26788,13 +26788,13 @@
         <v>199</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>241</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120">
@@ -26802,13 +26802,13 @@
         <v>113</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121">
@@ -26816,13 +26816,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
@@ -26830,13 +26830,13 @@
         <v>113</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
@@ -26844,13 +26844,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -26858,13 +26858,13 @@
         <v>113</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125">
@@ -26872,7 +26872,7 @@
         <v>113</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>141</v>
@@ -26886,13 +26886,13 @@
         <v>113</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127">
@@ -26900,13 +26900,13 @@
         <v>113</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
@@ -26914,13 +26914,13 @@
         <v>113</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -26928,13 +26928,13 @@
         <v>113</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130">
@@ -26942,7 +26942,7 @@
         <v>177</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>141</v>
@@ -26956,13 +26956,13 @@
         <v>177</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
@@ -26970,7 +26970,7 @@
         <v>177</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>141</v>
@@ -26984,13 +26984,13 @@
         <v>177</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -26998,13 +26998,13 @@
         <v>177</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135">
@@ -27012,7 +27012,7 @@
         <v>87</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>141</v>
@@ -27040,13 +27040,13 @@
         <v>87</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138">
@@ -27054,13 +27054,13 @@
         <v>87</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139">
@@ -27068,13 +27068,13 @@
         <v>87</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140">
@@ -27082,13 +27082,13 @@
         <v>143</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141">
@@ -27096,13 +27096,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
@@ -27110,13 +27110,13 @@
         <v>143</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
@@ -27138,13 +27138,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -27152,13 +27152,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
@@ -27166,13 +27166,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147">
@@ -27180,13 +27180,13 @@
         <v>143</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148">
@@ -27194,13 +27194,13 @@
         <v>343</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>13</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149">
@@ -27208,13 +27208,13 @@
         <v>343</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>413</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150">
@@ -27222,13 +27222,13 @@
         <v>343</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>13</v>
+        <v>409</v>
       </c>
     </row>
     <row r="151">
@@ -27236,7 +27236,7 @@
         <v>343</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>141</v>
@@ -27250,13 +27250,13 @@
         <v>343</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>323</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -27264,13 +27264,13 @@
         <v>343</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>188</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154">
@@ -27278,7 +27278,7 @@
         <v>343</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>141</v>
@@ -27298,7 +27298,7 @@
         <v>141</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -27306,13 +27306,13 @@
         <v>81</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157">
@@ -27320,13 +27320,13 @@
         <v>81</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -27334,7 +27334,7 @@
         <v>81</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>141</v>
@@ -27348,13 +27348,13 @@
         <v>81</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160">
@@ -27368,7 +27368,7 @@
         <v>141</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
@@ -27376,13 +27376,13 @@
         <v>81</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162">
@@ -27390,13 +27390,13 @@
         <v>94</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
@@ -27404,13 +27404,13 @@
         <v>94</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164">
@@ -27418,13 +27418,13 @@
         <v>94</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
@@ -27432,7 +27432,7 @@
         <v>94</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>141</v>
@@ -27446,13 +27446,13 @@
         <v>94</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167">
@@ -27466,7 +27466,7 @@
         <v>141</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -27474,7 +27474,7 @@
         <v>94</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>141</v>
@@ -27502,7 +27502,7 @@
         <v>94</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>141</v>
@@ -27516,13 +27516,13 @@
         <v>94</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
@@ -27536,7 +27536,7 @@
         <v>141</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173">
@@ -27544,13 +27544,13 @@
         <v>234</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
@@ -27558,13 +27558,13 @@
         <v>234</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175">
@@ -27572,13 +27572,13 @@
         <v>234</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176">
@@ -27586,13 +27586,13 @@
         <v>234</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177">
@@ -27600,7 +27600,7 @@
         <v>234</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>141</v>
@@ -27614,7 +27614,7 @@
         <v>218</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>141</v>
@@ -27628,13 +27628,13 @@
         <v>218</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
@@ -27656,13 +27656,13 @@
         <v>218</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182">
@@ -27670,13 +27670,13 @@
         <v>218</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183">
@@ -27684,13 +27684,13 @@
         <v>250</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184">
@@ -27698,13 +27698,13 @@
         <v>250</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185">
@@ -27712,13 +27712,13 @@
         <v>250</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186">
@@ -27726,13 +27726,13 @@
         <v>250</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
@@ -27740,13 +27740,13 @@
         <v>250</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188">
@@ -27754,7 +27754,7 @@
         <v>250</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>141</v>
@@ -27768,13 +27768,13 @@
         <v>228</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190">
@@ -27782,13 +27782,13 @@
         <v>228</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191">
@@ -27796,13 +27796,13 @@
         <v>228</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192">
@@ -27810,13 +27810,13 @@
         <v>228</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193">
@@ -27824,13 +27824,13 @@
         <v>228</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194">
@@ -27838,13 +27838,13 @@
         <v>228</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -27852,13 +27852,13 @@
         <v>228</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196">
@@ -27866,13 +27866,13 @@
         <v>228</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
@@ -27880,13 +27880,13 @@
         <v>246</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D197" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198">
@@ -27894,13 +27894,13 @@
         <v>246</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -27936,13 +27936,13 @@
         <v>268</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202">
@@ -27950,13 +27950,13 @@
         <v>268</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203">
@@ -27964,13 +27964,13 @@
         <v>268</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204">
@@ -27978,13 +27978,13 @@
         <v>268</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205">
@@ -27992,13 +27992,13 @@
         <v>268</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
@@ -28006,13 +28006,13 @@
         <v>167</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
@@ -28026,7 +28026,7 @@
         <v>141</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208">
@@ -28034,13 +28034,13 @@
         <v>167</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209">
@@ -28048,13 +28048,13 @@
         <v>167</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210">
@@ -28068,7 +28068,7 @@
         <v>141</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211">
@@ -28076,13 +28076,13 @@
         <v>167</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212">
@@ -28090,13 +28090,13 @@
         <v>167</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213">
@@ -28104,13 +28104,13 @@
         <v>167</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
@@ -28124,7 +28124,7 @@
         <v>141</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
@@ -28132,7 +28132,7 @@
         <v>167</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>141</v>
@@ -28146,13 +28146,13 @@
         <v>167</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -28160,13 +28160,13 @@
         <v>275</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="218">
@@ -28174,13 +28174,13 @@
         <v>275</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219">
@@ -28188,13 +28188,13 @@
         <v>275</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
@@ -28202,13 +28202,13 @@
         <v>275</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221">
@@ -28216,13 +28216,13 @@
         <v>275</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222">
@@ -28230,13 +28230,13 @@
         <v>275</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223">
@@ -28244,13 +28244,13 @@
         <v>275</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="224">
@@ -28258,7 +28258,7 @@
         <v>275</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>141</v>
@@ -28272,7 +28272,7 @@
         <v>275</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>141</v>
@@ -28286,7 +28286,7 @@
         <v>284</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>141</v>
@@ -28300,13 +28300,13 @@
         <v>284</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>137</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228">
@@ -28314,13 +28314,13 @@
         <v>284</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D228" t="s" s="0">
-        <v>300</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
@@ -28328,13 +28328,13 @@
         <v>284</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230">
@@ -28342,13 +28342,13 @@
         <v>284</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>209</v>
+        <v>137</v>
       </c>
     </row>
     <row r="231">
@@ -28356,13 +28356,13 @@
         <v>284</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232">
@@ -28370,13 +28370,13 @@
         <v>284</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>306</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
@@ -28384,13 +28384,13 @@
         <v>284</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>239</v>
+        <v>300</v>
       </c>
     </row>
     <row r="234">
@@ -28398,13 +28398,13 @@
         <v>284</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235">
@@ -28412,13 +28412,13 @@
         <v>284</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236">
@@ -28426,13 +28426,13 @@
         <v>290</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>89</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -28440,13 +28440,13 @@
         <v>290</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
@@ -28454,13 +28454,13 @@
         <v>290</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>401</v>
+        <v>89</v>
       </c>
     </row>
     <row r="239">
@@ -28468,13 +28468,13 @@
         <v>290</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>13</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240">
@@ -28482,13 +28482,13 @@
         <v>290</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>396</v>
+        <v>137</v>
       </c>
     </row>
     <row r="241">
@@ -28496,13 +28496,13 @@
         <v>300</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242">
@@ -28510,13 +28510,13 @@
         <v>300</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>306</v>
+        <v>209</v>
       </c>
     </row>
     <row r="243">
@@ -28524,13 +28524,13 @@
         <v>300</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244">
@@ -28538,13 +28538,13 @@
         <v>300</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>209</v>
+        <v>128</v>
       </c>
     </row>
     <row r="245">
@@ -28558,7 +28558,7 @@
         <v>141</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>279</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246">
@@ -28566,7 +28566,7 @@
         <v>350</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>141</v>
@@ -28580,13 +28580,13 @@
         <v>350</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>13</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248">
@@ -28594,13 +28594,13 @@
         <v>350</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>413</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
@@ -28608,13 +28608,13 @@
         <v>350</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250">
@@ -28622,13 +28622,13 @@
         <v>350</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>153</v>
+        <v>409</v>
       </c>
     </row>
     <row r="251">
@@ -28636,13 +28636,13 @@
         <v>62</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -28650,13 +28650,13 @@
         <v>62</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253">
@@ -28664,13 +28664,13 @@
         <v>62</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254">
@@ -28678,7 +28678,7 @@
         <v>62</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>141</v>
@@ -28692,13 +28692,13 @@
         <v>62</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="256">
@@ -28706,13 +28706,13 @@
         <v>62</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257">
@@ -28720,7 +28720,7 @@
         <v>62</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>141</v>
@@ -28734,13 +28734,13 @@
         <v>62</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D258" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259">
@@ -28748,7 +28748,7 @@
         <v>62</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>141</v>
@@ -28762,7 +28762,7 @@
         <v>62</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>141</v>
@@ -28796,7 +28796,7 @@
         <v>141</v>
       </c>
       <c r="D262" t="s" s="0">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
@@ -28818,13 +28818,13 @@
         <v>356</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>13</v>
+        <v>409</v>
       </c>
     </row>
     <row r="265">
@@ -28832,13 +28832,13 @@
         <v>356</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>413</v>
+        <v>131</v>
       </c>
     </row>
     <row r="266">
@@ -28846,13 +28846,13 @@
         <v>139</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D266" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267">
@@ -28860,13 +28860,13 @@
         <v>139</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D267" t="s" s="0">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="268">
@@ -28874,13 +28874,13 @@
         <v>139</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D268" t="s" s="0">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269">
@@ -28888,13 +28888,13 @@
         <v>139</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D269" t="s" s="0">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270">
@@ -28902,13 +28902,13 @@
         <v>139</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D270" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271">
@@ -28916,13 +28916,13 @@
         <v>139</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D271" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272">
@@ -28930,13 +28930,13 @@
         <v>139</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D272" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273">
@@ -28944,13 +28944,13 @@
         <v>139</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D273" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="274">
@@ -28958,13 +28958,13 @@
         <v>139</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D274" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
@@ -28972,13 +28972,13 @@
         <v>45</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D275" t="s" s="0">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276">
@@ -29000,13 +29000,13 @@
         <v>45</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D277" t="s" s="0">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="278">
@@ -29014,7 +29014,7 @@
         <v>45</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>141</v>
@@ -29028,7 +29028,7 @@
         <v>45</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>141</v>
@@ -29042,7 +29042,7 @@
         <v>45</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>141</v>
@@ -29056,13 +29056,13 @@
         <v>270</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D281" t="s" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282">
@@ -29070,13 +29070,13 @@
         <v>270</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D282" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283">
@@ -29084,13 +29084,13 @@
         <v>270</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D283" t="s" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="284">
@@ -29098,13 +29098,13 @@
         <v>270</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D284" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
@@ -29126,7 +29126,7 @@
         <v>151</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>141</v>
@@ -29140,13 +29140,13 @@
         <v>151</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D287" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288">
@@ -29154,13 +29154,13 @@
         <v>151</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D288" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289">
@@ -29168,13 +29168,13 @@
         <v>151</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D289" t="s" s="0">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290">
@@ -29182,13 +29182,13 @@
         <v>151</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>141</v>
       </c>
       <c r="D290" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291">
@@ -29196,7 +29196,7 @@
         <v>261</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>141</v>
@@ -29210,7 +29210,7 @@
         <v>261</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>141</v>
@@ -29238,7 +29238,7 @@
         <v>261</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>141</v>

--- a/data/backend/forum-service_structure.xlsx
+++ b/data/backend/forum-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10748" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10892" uniqueCount="508">
   <si>
     <t>Class Name</t>
   </si>
@@ -1029,27 +1029,27 @@
     <t>org.andante.forum.controller.TopicController</t>
   </si>
   <si>
+    <t>getTopic(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>getHierarchy(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>modify(dto.topic.TopicInputDTO)</t>
+  </si>
+  <si>
+    <t>getSubtopics(java.lang.Long)</t>
+  </si>
+  <si>
     <t>TopicController(org.andante.forum.logic.service.impl.TopicServiceImpl, org.andante.forum.controller.mapper.TopicDTOModelMapper, org.andante.mappers.OperationHttpStatusMapper)</t>
   </si>
   <si>
-    <t>getTopic(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>getHierarchy(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>modify(dto.topic.TopicInputDTO)</t>
-  </si>
-  <si>
     <t>getPage(dto.topic.TopicQuerySpecification)</t>
   </si>
   <si>
     <t>create(dto.topic.TopicInputDTO)</t>
   </si>
   <si>
-    <t>getSubtopics(java.lang.Long)</t>
-  </si>
-  <si>
     <t>delete(java.lang.Long)</t>
   </si>
   <si>
@@ -1062,6 +1062,9 @@
     <t>like(dto.post.PostLikeDTO)</t>
   </si>
   <si>
+    <t>modify(dto.post.PostInputDTO)</t>
+  </si>
+  <si>
     <t>create(dto.post.PostInputDTO)</t>
   </si>
   <si>
@@ -1069,9 +1072,6 @@
   </si>
   <si>
     <t>PostController(org.andante.forum.logic.service.impl.PostServiceImpl, org.andante.forum.controller.mapper.PostDTOModelMapper, org.andante.forum.controller.mapper.PostLikesDTOModelMapper, org.andante.mappers.OperationHttpStatusMapper)</t>
-  </si>
-  <si>
-    <t>modify(dto.post.PostInputDTO)</t>
   </si>
   <si>
     <t>org.andante.forum.controller.PostResponseController</t>
@@ -20158,7 +20158,7 @@
         <v>334</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>458</v>
@@ -20169,7 +20169,7 @@
         <v>334</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>485</v>
@@ -20180,7 +20180,7 @@
         <v>334</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>485</v>
@@ -20202,7 +20202,7 @@
         <v>334</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>485</v>
@@ -20213,7 +20213,7 @@
         <v>334</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>458</v>
@@ -20224,7 +20224,7 @@
         <v>334</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>458</v>
@@ -20246,7 +20246,7 @@
         <v>334</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>458</v>
@@ -21434,7 +21434,7 @@
         <v>343</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>458</v>
@@ -21478,7 +21478,7 @@
         <v>343</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>458</v>
@@ -21500,7 +21500,7 @@
         <v>343</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>458</v>
@@ -21522,7 +21522,7 @@
         <v>343</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>478</v>
@@ -23293,7 +23293,7 @@
         <v>350</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C465" t="s" s="0">
         <v>458</v>
@@ -24692,7 +24692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24717,13 +24717,13 @@
         <v>334</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -24731,7 +24731,7 @@
         <v>334</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
@@ -24745,7 +24745,7 @@
         <v>334</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
@@ -24759,7 +24759,7 @@
         <v>334</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -24773,13 +24773,13 @@
         <v>334</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>264</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -24787,7 +24787,7 @@
         <v>334</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
@@ -24801,13 +24801,13 @@
         <v>334</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -24829,63 +24829,63 @@
         <v>334</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>342</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>264</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
@@ -24896,10 +24896,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
@@ -24910,24 +24910,24 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>348</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
@@ -24938,24 +24938,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -24966,10 +24966,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
@@ -24980,10 +24980,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
@@ -24994,38 +24994,38 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>264</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>354</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -25036,38 +25036,38 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>342</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -25078,44 +25078,548 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>136</v>
+        <v>347</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -38607,7 +39111,7 @@
         <v>334</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>241</v>
@@ -38624,7 +39128,7 @@
         <v>334</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>290</v>
@@ -38658,7 +39162,7 @@
         <v>343</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>188</v>
@@ -38709,7 +39213,7 @@
         <v>334</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>290</v>
@@ -38794,7 +39298,7 @@
         <v>334</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>290</v>
@@ -38811,7 +39315,7 @@
         <v>334</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>290</v>
@@ -38862,7 +39366,7 @@
         <v>343</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>188</v>
@@ -38896,7 +39400,7 @@
         <v>343</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>199</v>
@@ -38947,7 +39451,7 @@
         <v>334</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>290</v>
@@ -38964,7 +39468,7 @@
         <v>350</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>78</v>
@@ -38998,7 +39502,7 @@
         <v>343</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>188</v>
@@ -39015,7 +39519,7 @@
         <v>343</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>199</v>
@@ -39032,7 +39536,7 @@
         <v>350</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>153</v>
@@ -39066,7 +39570,7 @@
         <v>334</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>241</v>
@@ -39134,7 +39638,7 @@
         <v>334</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>290</v>
@@ -39168,7 +39672,7 @@
         <v>334</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>241</v>
@@ -39236,7 +39740,7 @@
         <v>343</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>199</v>

--- a/data/backend/forum-service_structure.xlsx
+++ b/data/backend/forum-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10892" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10892" uniqueCount="509">
   <si>
     <t>Class Name</t>
   </si>
@@ -1537,6 +1537,9 @@
   </si>
   <si>
     <t>140</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>62</t>
@@ -17800,7 +17803,7 @@
         <v>161</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18">
@@ -18096,7 +18099,7 @@
         <v>309</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55">
@@ -22130,7 +22133,7 @@
         <v>244</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="360">
@@ -22471,7 +22474,7 @@
         <v>258</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391">
@@ -22603,7 +22606,7 @@
         <v>7</v>
       </c>
       <c r="C402" t="s" s="0">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="403">
@@ -23065,7 +23068,7 @@
         <v>280</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="445">
@@ -23142,7 +23145,7 @@
         <v>287</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="452">
@@ -23978,7 +23981,7 @@
         <v>7</v>
       </c>
       <c r="C527" t="s" s="0">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="528">
@@ -24198,7 +24201,7 @@
         <v>317</v>
       </c>
       <c r="C547" t="s" s="0">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="548">
@@ -24495,7 +24498,7 @@
         <v>327</v>
       </c>
       <c r="C574" t="s" s="0">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="575">
